--- a/ErpScheduler.xlsx
+++ b/ErpScheduler.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,6 +33,14 @@
   </si>
   <si>
     <t>로그인 UI 아이콘 및 색상 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP DB 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web 연결과 git 문제 해결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -425,7 +433,7 @@
         <v>44348</v>
       </c>
       <c r="B2" s="3">
-        <v>0.38194444444444442</v>
+        <v>0.375</v>
       </c>
       <c r="C2" s="3">
         <v>0.4513888888888889</v>
@@ -443,6 +451,28 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/ErpScheduler.xlsx
+++ b/ErpScheduler.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,6 +41,26 @@
   </si>
   <si>
     <t>web 연결과 git 문제 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210603 화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210602 월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 팝업 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB table 조정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,14 +107,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -404,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -412,30 +429,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="12.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="3" customWidth="1"/>
+    <col min="2" max="3" width="12.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="60.125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>44348</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2">
         <v>0.375</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.4513888888888889</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -443,10 +461,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.49305555555555558</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -454,10 +472,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0.5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.53472222222222221</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -465,14 +483,50 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.56944444444444442</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.72916666666666663</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
